--- a/lowest2.xlsx
+++ b/lowest2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,32 +480,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rias Manten Mariyam</t>
+          <t>Liyan Make Up Jember</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.016713798166977</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F2" t="n">
-        <v>4.676883471568095</v>
+        <v>3.999999999999998</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'Make Over Ultra Cover Liquid Foundation - velvet nude (medium kuning) - medium - warm', 'LT Pro smooth corrector cream foundation - plum rose (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1022.22</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02514647779309234</v>
+        <v>0.0430995781778486</v>
       </c>
     </row>
     <row r="3">
@@ -513,32 +513,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4.6</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eka Make Over</t>
+          <t>Larasnada Make Up</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9345659500915492</v>
+        <v>0.7721979998346716</v>
       </c>
       <c r="F3" t="n">
-        <v>4.299003370421126</v>
+        <v>3.34619133261691</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>54.11999999999999</v>
+        <v>48.98</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0284360552674098</v>
+        <v>0.04782190389231067</v>
       </c>
     </row>
     <row r="4">
@@ -546,32 +546,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4.571428571428571</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Salon Fatah</t>
+          <t>Griya Putri Make Up</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8467621740413966</v>
+        <v>0.6527825256955171</v>
       </c>
       <c r="F4" t="n">
-        <v>3.870912795617813</v>
+        <v>2.937521365629827</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'Make Over Ultra Cover Liquid Foundation - velvet nude (medium kuning) - medium - warm', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>33.67</v>
+        <v>46.64</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06278896067188436</v>
+        <v>0.03511901611582383</v>
       </c>
     </row>
     <row r="5">
@@ -579,32 +579,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ayunia Bridal dan Salon</t>
+          <t>Laura Make Up &amp; Bridal</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6751280602153871</v>
+        <v>0.6861735723104554</v>
       </c>
       <c r="F5" t="n">
-        <v>3.375640301076936</v>
+        <v>2.881929003703913</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Wardah Lightening Liquid Foundation 25ml - neutral beige - light - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.22</v>
+        <v>41.79</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02116774365439467</v>
+        <v>0.04577862971620714</v>
       </c>
     </row>
     <row r="6">
@@ -612,32 +612,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rias Pengantin Criepno Lestari</t>
+          <t>Winda Wijaya MUA &amp; Beauty Studio</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.107521457040049</v>
+        <v>0.5430098066412012</v>
       </c>
       <c r="F6" t="n">
-        <v>3.322564371120147</v>
+        <v>2.715049033206006</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>28.71</v>
+        <v>47.88</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03367597692182452</v>
+        <v>0.03776093639234512</v>
       </c>
     </row>
     <row r="7">
@@ -645,32 +645,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Khaliza Make Up</t>
+          <t>Sanggar Rias Cantik Tina</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6504341400022338</v>
+        <v>0.5340601480704337</v>
       </c>
       <c r="F7" t="n">
-        <v>3.252170700011169</v>
+        <v>2.670300740352168</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.39</v>
+        <v>40.88</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03841552847969024</v>
+        <v>0.03511790768012013</v>
       </c>
     </row>
     <row r="8">
@@ -678,32 +678,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yulia Salon &amp; Bridal</t>
+          <t>Ayuk Rias Pengantin</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6504308815437566</v>
+        <v>0.6582969997520076</v>
       </c>
       <c r="F8" t="n">
-        <v>3.252154407718783</v>
+        <v>2.63318799900803</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'Maybelline Fit Me Matte + Poreless Liquid Foundation - natural beige - medium - warm']</t>
+          <t>['Maybelline Fit Me Matte + Poreless Liquid Foundation - natural beige - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>25.48</v>
+        <v>27.48</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02494161020148041</v>
+        <v>0.03130664574820885</v>
       </c>
     </row>
     <row r="9">
@@ -718,25 +718,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Laura Make Up &amp; Bridal</t>
+          <t>Yasmin MUA dan Henna Jember</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6751295238366579</v>
+        <v>0.6582969997520076</v>
       </c>
       <c r="F9" t="n">
-        <v>2.700518095346632</v>
+        <v>2.63318799900803</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.34</v>
+        <v>36.15</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06577883328775719</v>
+        <v>0.04378701290567522</v>
       </c>
     </row>
     <row r="10">
@@ -744,32 +744,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Novi Make Up</t>
+          <t>Eka Make Over</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6504340566973412</v>
+        <v>0.5571369310241312</v>
       </c>
       <c r="F10" t="n">
-        <v>2.601736226789365</v>
+        <v>2.228547724096525</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>28.29</v>
+        <v>15.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03803526047983582</v>
+        <v>0.02836554709224043</v>
       </c>
     </row>
     <row r="11">
@@ -780,29 +780,29 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dinda Wijaya Make Up</t>
+          <t>Hiekmaa MUA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6751270568695431</v>
+        <v>0.5340601480704337</v>
       </c>
       <c r="F11" t="n">
-        <v>2.025381170608629</v>
+        <v>2.136240592281735</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.7</v>
+        <v>42.52</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1281810445700524</v>
+        <v>0.02883054526737189</v>
       </c>
     </row>
     <row r="12">
@@ -810,32 +810,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sanggar Rias Nining</t>
+          <t>Ayunia Bridal dan Salon</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3883707901506338</v>
+        <v>0.5723625789705675</v>
       </c>
       <c r="F12" t="n">
-        <v>1.941853950753169</v>
+        <v>2.003269026396986</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'Make Over Ultra Cover Liquid Foundation - velvet nude (medium kuning) - medium - warm', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'Wardah Lightening Liquid Foundation 25ml - neutral beige - light - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7.58</v>
+        <v>43.89</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03110845491574294</v>
+        <v>0.04015552513890355</v>
       </c>
     </row>
     <row r="13">
@@ -846,29 +846,29 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Abha Beauty Make Up Artist</t>
+          <t>Dinda Wijaya Make Up</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.388370789688679</v>
+        <v>0.6077169653880694</v>
       </c>
       <c r="F13" t="n">
-        <v>1.941853948443395</v>
+        <v>1.823150896164208</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'Ultima II Wonderwear Cream Make Up - linen - light - cool', 'LT Pro Smooth Corrector Cream Foundation - yellow orange (putih kekuningan) - light - warm']</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.26</v>
+        <v>35.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02668276138019809</v>
+        <v>0.03594407541824426</v>
       </c>
     </row>
     <row r="14">
@@ -876,32 +876,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RR Make Up</t>
+          <t>Bonita MUA Jember</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3883707896303233</v>
+        <v>0.5430098066412012</v>
       </c>
       <c r="F14" t="n">
-        <v>1.941853948151616</v>
+        <v>1.629029419923604</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>47.66</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02722777267106991</v>
+        <v>0.04738017528256877</v>
       </c>
     </row>
     <row r="15">
@@ -909,32 +909,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ella Surya Make Up</t>
+          <t>Sanggar Rias Pengantin Dewi Balqis</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3883707892246829</v>
+        <v>0.5340601480704337</v>
       </c>
       <c r="F15" t="n">
-        <v>1.553483156898732</v>
+        <v>1.602180444211301</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'Maybelline Fit Me Matte + Poreless Liquid Foundation - natural beige - medium - warm', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm']</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>15.71</v>
+        <v>44.68</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02044552161990143</v>
+        <v>0.02635193587507856</v>
       </c>
     </row>
     <row r="16">
@@ -945,29 +945,29 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Griya Citra Ayu</t>
+          <t>Rias Pengantin Ana</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3883707889595122</v>
+        <v>0.5326790555283144</v>
       </c>
       <c r="F16" t="n">
-        <v>1.553483155838049</v>
+        <v>1.598037166584943</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Maybelline Fit Me Matte + Poreless Liquid Foundation - light beige - light - warm', 'Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm']</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.43</v>
+        <v>40.15</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01979969548074723</v>
+        <v>0.0368766496276538</v>
       </c>
     </row>
     <row r="17">
@@ -975,32 +975,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rosa Indah Griya Rias Pengantin</t>
+          <t>Rias Pengantin Azizah</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.388370785297007</v>
+        <v>0.5308903342154393</v>
       </c>
       <c r="F17" t="n">
-        <v>1.553483141188028</v>
+        <v>1.592671002646318</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Make Over Ultra Cover Liquid Foundation - pearl (fair white) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>41.07</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03738473716949753</v>
+        <v>0.04884733099025085</v>
       </c>
     </row>
     <row r="18">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sanggar Rias dan Salon Esthie</t>
+          <t>Salon Vinell</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3883707903722612</v>
+        <v>0.5305862608811767</v>
       </c>
       <c r="F18" t="n">
-        <v>1.165112371116784</v>
+        <v>1.59175878264353</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.55</v>
+        <v>42.25</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02434943136426622</v>
+        <v>0.03935123609138865</v>
       </c>
     </row>
     <row r="19">
@@ -1048,25 +1048,223 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rias Pengantin Azizah</t>
+          <t>Yulia Salon &amp; Bridal</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3883707886161101</v>
+        <v>0.5305206179064099</v>
       </c>
       <c r="F19" t="n">
-        <v>1.16511236584833</v>
+        <v>1.59156185371923</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10.18</v>
+        <v>38.39</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03726488662337032</v>
+        <v>0.04072775336260485</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Salon Indah Sari</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5304923536465564</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.591477060939669</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03532181429121101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ifa Salon</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.53042682948717</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.59128048846151</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool']</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03698288675302891</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sanggar Rias dan Salon Esthie</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5303386052953142</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.591015815885942</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm']</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.03008345620388064</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Salon Sylvia</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5302531589367714</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.590759476810314</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0271988956319128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Salon Sriwijaya</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5873346551340316</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.174669310268063</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Make Over Ultra Cover Liquid Foundation - crème rose (fair white) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02844571014529046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nonarika Make Up &amp; Hairdo</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5430098066412012</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.086019613282402</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03795219061650745</v>
       </c>
     </row>
   </sheetData>
